--- a/RaxML_analysis/TOR/EMSEMBL_TOR_homologs..xlsx
+++ b/RaxML_analysis/TOR/EMSEMBL_TOR_homologs..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollo\Documents\Box Sync\EEOB563\EEOB563_S19FinalProject\RaxML_analysis\TOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDAF090-E9BF-4F30-85BE-1457BE6EC7D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23300AA1-F9F5-47DA-B7F0-44BD880579A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMSEMBL_TOR_homologs" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,20 @@
     <sheet name="homolo" sheetId="4" r:id="rId4"/>
     <sheet name="phyto" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="462">
   <si>
     <t>gene_stable_id</t>
   </si>
@@ -800,228 +808,6 @@
     <t>Zmay</t>
   </si>
   <si>
-    <t>Arabidopsis thaliana</t>
-  </si>
-  <si>
-    <t>Arabidopsis lyrata subsp. lyrata</t>
-  </si>
-  <si>
-    <t>Capsella rubella</t>
-  </si>
-  <si>
-    <t>Eutrema salsugineum</t>
-  </si>
-  <si>
-    <t>Camelina sativa</t>
-  </si>
-  <si>
-    <t>Brassica napus</t>
-  </si>
-  <si>
-    <t>Raphanus sativus</t>
-  </si>
-  <si>
-    <t>Brassica oleracea var. oleracea</t>
-  </si>
-  <si>
-    <t>Brassica rapa</t>
-  </si>
-  <si>
-    <t>Tarenaya hassleriana</t>
-  </si>
-  <si>
-    <t>Theobroma cacao</t>
-  </si>
-  <si>
-    <t>Herrania umbratica</t>
-  </si>
-  <si>
-    <t>Gossypium raimondii</t>
-  </si>
-  <si>
-    <t>Gossypium arboreum</t>
-  </si>
-  <si>
-    <t>Gossypium hirsutum</t>
-  </si>
-  <si>
-    <t>Citrus clementina</t>
-  </si>
-  <si>
-    <t>Citrus sinensis</t>
-  </si>
-  <si>
-    <t>Prunus persica</t>
-  </si>
-  <si>
-    <t>Durio zibethinus</t>
-  </si>
-  <si>
-    <t>Momordica charantia</t>
-  </si>
-  <si>
-    <t>Prunus avium</t>
-  </si>
-  <si>
-    <t>Ricinus communis</t>
-  </si>
-  <si>
-    <t>Pyrus x bretschneideri</t>
-  </si>
-  <si>
-    <t>Jatropha curcas</t>
-  </si>
-  <si>
-    <t>Populus trichocarpa</t>
-  </si>
-  <si>
-    <t>Coffea eugenioides</t>
-  </si>
-  <si>
-    <t>Cucurbita moschata</t>
-  </si>
-  <si>
-    <t>Cucurbita maxima</t>
-  </si>
-  <si>
-    <t>Prunus mume</t>
-  </si>
-  <si>
-    <t>Cucurbita pepo subsp. pepo</t>
-  </si>
-  <si>
-    <t>Coffea arabica</t>
-  </si>
-  <si>
-    <t>Arachis hypogaea</t>
-  </si>
-  <si>
-    <t>Ziziphus jujuba</t>
-  </si>
-  <si>
-    <t>Cucumis melo</t>
-  </si>
-  <si>
-    <t>Nelumbo nucifera</t>
-  </si>
-  <si>
-    <t>Abrus precatorius</t>
-  </si>
-  <si>
-    <t>Rosa chinensis</t>
-  </si>
-  <si>
-    <t>Glycine max</t>
-  </si>
-  <si>
-    <t>Cucumis sativus</t>
-  </si>
-  <si>
-    <t>Glycine soja</t>
-  </si>
-  <si>
-    <t>Populus euphratica</t>
-  </si>
-  <si>
-    <t>Quercus suber</t>
-  </si>
-  <si>
-    <t>Vitis vinifera</t>
-  </si>
-  <si>
-    <t>Lupinus angustifolius</t>
-  </si>
-  <si>
-    <t>Cajanus cajan</t>
-  </si>
-  <si>
-    <t>Juglans regia</t>
-  </si>
-  <si>
-    <t>Solanum pennellii</t>
-  </si>
-  <si>
-    <t>Daucus carota subsp. sativus</t>
-  </si>
-  <si>
-    <t>Sesamum indicum</t>
-  </si>
-  <si>
-    <t>Solanum lycopersicum</t>
-  </si>
-  <si>
-    <t>Arachis duranensis</t>
-  </si>
-  <si>
-    <t>Vigna unguiculata</t>
-  </si>
-  <si>
-    <t>Fragaria vesca subsp. vesca</t>
-  </si>
-  <si>
-    <t>Nicotiana tomentosiformis</t>
-  </si>
-  <si>
-    <t>Solanum tuberosum</t>
-  </si>
-  <si>
-    <t>Vigna radiata var. radiata</t>
-  </si>
-  <si>
-    <t>Homo sapiens</t>
-  </si>
-  <si>
-    <t>Pan troglodytes</t>
-  </si>
-  <si>
-    <t>Canis lupus familiaris</t>
-  </si>
-  <si>
-    <t>Bos taurus</t>
-  </si>
-  <si>
-    <t>Mus musculus</t>
-  </si>
-  <si>
-    <t>Rattus norvegicus</t>
-  </si>
-  <si>
-    <t>Gallus gallus</t>
-  </si>
-  <si>
-    <t>Danio rerio</t>
-  </si>
-  <si>
-    <t>Drosophila melanogaster</t>
-  </si>
-  <si>
-    <t>Anopheles gambiae str. PEST</t>
-  </si>
-  <si>
-    <t>Saccharomyces cerevisiae S288C</t>
-  </si>
-  <si>
-    <t>Kluyveromyces lactis</t>
-  </si>
-  <si>
-    <t>Eremothecium gossypii ATCC 10895</t>
-  </si>
-  <si>
-    <t>Schizosaccharomyces pombe</t>
-  </si>
-  <si>
-    <t>Pyricularia oryzae 70-15</t>
-  </si>
-  <si>
-    <t>Neurospora crassa OR74A</t>
-  </si>
-  <si>
-    <t>Oryza sativa Japonica Group</t>
-  </si>
-  <si>
-    <t>Xenopus (Silurana) tropicalis</t>
-  </si>
-  <si>
     <t>Org_Olucimarinus</t>
   </si>
   <si>
@@ -1209,6 +995,429 @@
   </si>
   <si>
     <t>Org_Zmarina</t>
+  </si>
+  <si>
+    <t>Arabidopsis</t>
+  </si>
+  <si>
+    <t>thaliana</t>
+  </si>
+  <si>
+    <t>lyrata</t>
+  </si>
+  <si>
+    <t>subsp.</t>
+  </si>
+  <si>
+    <t>Capsella</t>
+  </si>
+  <si>
+    <t>rubella</t>
+  </si>
+  <si>
+    <t>Eutrema</t>
+  </si>
+  <si>
+    <t>salsugineum</t>
+  </si>
+  <si>
+    <t>Camelina</t>
+  </si>
+  <si>
+    <t>sativa</t>
+  </si>
+  <si>
+    <t>Brassica</t>
+  </si>
+  <si>
+    <t>napus</t>
+  </si>
+  <si>
+    <t>Raphanus</t>
+  </si>
+  <si>
+    <t>sativus</t>
+  </si>
+  <si>
+    <t>oleracea</t>
+  </si>
+  <si>
+    <t>var.</t>
+  </si>
+  <si>
+    <t>rapa</t>
+  </si>
+  <si>
+    <t>Tarenaya</t>
+  </si>
+  <si>
+    <t>hassleriana</t>
+  </si>
+  <si>
+    <t>Theobroma</t>
+  </si>
+  <si>
+    <t>cacao</t>
+  </si>
+  <si>
+    <t>Herrania</t>
+  </si>
+  <si>
+    <t>umbratica</t>
+  </si>
+  <si>
+    <t>Gossypium</t>
+  </si>
+  <si>
+    <t>raimondii</t>
+  </si>
+  <si>
+    <t>arboreum</t>
+  </si>
+  <si>
+    <t>hirsutum</t>
+  </si>
+  <si>
+    <t>Citrus</t>
+  </si>
+  <si>
+    <t>clementina</t>
+  </si>
+  <si>
+    <t>sinensis</t>
+  </si>
+  <si>
+    <t>Prunus</t>
+  </si>
+  <si>
+    <t>persica</t>
+  </si>
+  <si>
+    <t>Durio</t>
+  </si>
+  <si>
+    <t>zibethinus</t>
+  </si>
+  <si>
+    <t>Momordica</t>
+  </si>
+  <si>
+    <t>charantia</t>
+  </si>
+  <si>
+    <t>avium</t>
+  </si>
+  <si>
+    <t>Ricinus</t>
+  </si>
+  <si>
+    <t>communis</t>
+  </si>
+  <si>
+    <t>Pyrus</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>bretschneideri</t>
+  </si>
+  <si>
+    <t>Jatropha</t>
+  </si>
+  <si>
+    <t>curcas</t>
+  </si>
+  <si>
+    <t>Populus</t>
+  </si>
+  <si>
+    <t>trichocarpa</t>
+  </si>
+  <si>
+    <t>Coffea</t>
+  </si>
+  <si>
+    <t>eugenioides</t>
+  </si>
+  <si>
+    <t>Cucurbita</t>
+  </si>
+  <si>
+    <t>moschata</t>
+  </si>
+  <si>
+    <t>maxima</t>
+  </si>
+  <si>
+    <t>mume</t>
+  </si>
+  <si>
+    <t>pepo</t>
+  </si>
+  <si>
+    <t>arabica</t>
+  </si>
+  <si>
+    <t>Arachis</t>
+  </si>
+  <si>
+    <t>hypogaea</t>
+  </si>
+  <si>
+    <t>Ziziphus</t>
+  </si>
+  <si>
+    <t>jujuba</t>
+  </si>
+  <si>
+    <t>Cucumis</t>
+  </si>
+  <si>
+    <t>melo</t>
+  </si>
+  <si>
+    <t>Nelumbo</t>
+  </si>
+  <si>
+    <t>nucifera</t>
+  </si>
+  <si>
+    <t>Abrus</t>
+  </si>
+  <si>
+    <t>precatorius</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>chinensis</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>soja</t>
+  </si>
+  <si>
+    <t>euphratica</t>
+  </si>
+  <si>
+    <t>Quercus</t>
+  </si>
+  <si>
+    <t>suber</t>
+  </si>
+  <si>
+    <t>Vitis</t>
+  </si>
+  <si>
+    <t>vinifera</t>
+  </si>
+  <si>
+    <t>Lupinus</t>
+  </si>
+  <si>
+    <t>angustifolius</t>
+  </si>
+  <si>
+    <t>Cajanus</t>
+  </si>
+  <si>
+    <t>cajan</t>
+  </si>
+  <si>
+    <t>Juglans</t>
+  </si>
+  <si>
+    <t>regia</t>
+  </si>
+  <si>
+    <t>Solanum</t>
+  </si>
+  <si>
+    <t>pennellii</t>
+  </si>
+  <si>
+    <t>Daucus</t>
+  </si>
+  <si>
+    <t>carota</t>
+  </si>
+  <si>
+    <t>Sesamum</t>
+  </si>
+  <si>
+    <t>indicum</t>
+  </si>
+  <si>
+    <t>lycopersicum</t>
+  </si>
+  <si>
+    <t>duranensis</t>
+  </si>
+  <si>
+    <t>Vigna</t>
+  </si>
+  <si>
+    <t>unguiculata</t>
+  </si>
+  <si>
+    <t>Fragaria</t>
+  </si>
+  <si>
+    <t>vesca</t>
+  </si>
+  <si>
+    <t>Nicotiana</t>
+  </si>
+  <si>
+    <t>tomentosiformis</t>
+  </si>
+  <si>
+    <t>tuberosum</t>
+  </si>
+  <si>
+    <t>radiata</t>
+  </si>
+  <si>
+    <t>Homo</t>
+  </si>
+  <si>
+    <t>sapiens</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>troglodytes</t>
+  </si>
+  <si>
+    <t>Canis</t>
+  </si>
+  <si>
+    <t>lupus</t>
+  </si>
+  <si>
+    <t>familiaris</t>
+  </si>
+  <si>
+    <t>Bos</t>
+  </si>
+  <si>
+    <t>taurus</t>
+  </si>
+  <si>
+    <t>Mus</t>
+  </si>
+  <si>
+    <t>musculus</t>
+  </si>
+  <si>
+    <t>Rattus</t>
+  </si>
+  <si>
+    <t>norvegicus</t>
+  </si>
+  <si>
+    <t>Gallus</t>
+  </si>
+  <si>
+    <t>gallus</t>
+  </si>
+  <si>
+    <t>Danio</t>
+  </si>
+  <si>
+    <t>rerio</t>
+  </si>
+  <si>
+    <t>Drosophila</t>
+  </si>
+  <si>
+    <t>melanogaster</t>
+  </si>
+  <si>
+    <t>Anopheles</t>
+  </si>
+  <si>
+    <t>gambiae</t>
+  </si>
+  <si>
+    <t>str.</t>
+  </si>
+  <si>
+    <t>PEST</t>
+  </si>
+  <si>
+    <t>Saccharomyces</t>
+  </si>
+  <si>
+    <t>cerevisiae</t>
+  </si>
+  <si>
+    <t>S288C</t>
+  </si>
+  <si>
+    <t>Kluyveromyces</t>
+  </si>
+  <si>
+    <t>lactis</t>
+  </si>
+  <si>
+    <t>Eremothecium</t>
+  </si>
+  <si>
+    <t>gossypii</t>
+  </si>
+  <si>
+    <t>ATCC</t>
+  </si>
+  <si>
+    <t>Schizosaccharomyces</t>
+  </si>
+  <si>
+    <t>pombe</t>
+  </si>
+  <si>
+    <t>Pyricularia</t>
+  </si>
+  <si>
+    <t>oryzae</t>
+  </si>
+  <si>
+    <t>70-15</t>
+  </si>
+  <si>
+    <t>Neurospora</t>
+  </si>
+  <si>
+    <t>crassa</t>
+  </si>
+  <si>
+    <t>OR74A</t>
+  </si>
+  <si>
+    <t>Oryza</t>
+  </si>
+  <si>
+    <t>Japonica</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Xenopus</t>
+  </si>
+  <si>
+    <t>(Silurana)</t>
+  </si>
+  <si>
+    <t>tropicalis</t>
   </si>
 </sst>
 </file>
@@ -2053,9 +2262,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2096,7 +2305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2137,7 +2346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2178,7 +2387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2219,7 +2428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2260,7 +2469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2301,7 +2510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2342,7 +2551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2383,7 +2592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2424,7 +2633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2465,7 +2674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2506,7 +2715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2547,7 +2756,7 @@
         <v>96.67</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2588,7 +2797,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2629,7 +2838,7 @@
         <v>98.58</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2670,7 +2879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2711,7 +2920,7 @@
         <v>98.34</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2752,7 +2961,7 @@
         <v>81.94</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2793,7 +3002,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2834,7 +3043,7 @@
         <v>99.56</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2875,7 +3084,7 @@
         <v>60.03</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2916,7 +3125,7 @@
         <v>99.56</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2957,7 +3166,7 @@
         <v>76.59</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2998,7 +3207,7 @@
         <v>99.79</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -3039,7 +3248,7 @@
         <v>98.52</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3080,7 +3289,7 @@
         <v>99.58</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3121,7 +3330,7 @@
         <v>98.55</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3162,7 +3371,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3203,7 +3412,7 @@
         <v>99.57</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3244,7 +3453,7 @@
         <v>99.61</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3285,7 +3494,7 @@
         <v>98.71</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3326,7 +3535,7 @@
         <v>98.62</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3367,7 +3576,7 @@
         <v>98.19</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3408,7 +3617,7 @@
         <v>96.26</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3449,7 +3658,7 @@
         <v>96.06</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3490,7 +3699,7 @@
         <v>96.21</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -3531,7 +3740,7 @@
         <v>97.32</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -3572,7 +3781,7 @@
         <v>98.31</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3613,7 +3822,7 @@
         <v>98.18</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3654,7 +3863,7 @@
         <v>82.84</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -3695,7 +3904,7 @@
         <v>96.58</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -3736,7 +3945,7 @@
         <v>98.33</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -3777,7 +3986,7 @@
         <v>96.62</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3818,7 +4027,7 @@
         <v>96.63</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3859,7 +4068,7 @@
         <v>96.72</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3900,7 +4109,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -3941,7 +4150,7 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -3982,7 +4191,7 @@
         <v>98.41</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -4023,7 +4232,7 @@
         <v>98.42</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -4064,7 +4273,7 @@
         <v>98.99</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -4105,7 +4314,7 @@
         <v>98.21</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -4146,7 +4355,7 @@
         <v>96.69</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -4187,7 +4396,7 @@
         <v>98.43</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -4228,7 +4437,7 @@
         <v>98.15</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -4269,7 +4478,7 @@
         <v>98.42</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4310,7 +4519,7 @@
         <v>98.24</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -4351,7 +4560,7 @@
         <v>96.52</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4392,7 +4601,7 @@
         <v>96.65</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -4433,7 +4642,7 @@
         <v>91.16</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -4474,7 +4683,7 @@
         <v>91.99</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -4515,7 +4724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -4556,7 +4765,7 @@
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -4597,7 +4806,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -4638,7 +4847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -4679,7 +4888,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -4720,7 +4929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -4761,7 +4970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -4802,7 +5011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -4852,680 +5061,1281 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A73" sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>257</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A53">
+    <sortCondition ref="A1:A53"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A75" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F56" sqref="F1:F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+      <c r="B1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1" t="str">
+        <f>LEFT(A1,1)&amp;LEFT(B1,3)</f>
+        <v>Adur</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+      <c r="B2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" t="str">
+        <f>LEFT(A2,1)&amp;LEFT(B2,3)</f>
+        <v>Ahyp</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" t="str">
+        <f>LEFT(A3,1)&amp;LEFT(B3,3)</f>
+        <v>Alyr</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+      <c r="B4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" t="str">
+        <f>LEFT(A4,1)&amp;LEFT(B4,3)</f>
+        <v>Apre</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+      <c r="B5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F5" t="str">
+        <f>LEFT(A5,1)&amp;LEFT(B5,3)</f>
+        <v>Atha</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+      <c r="B6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" t="str">
+        <f>LEFT(A6,1)&amp;LEFT(B6,3)</f>
+        <v>Bnap</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+      <c r="B7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" t="str">
+        <f>LEFT(A7,1)&amp;LEFT(B7,3)</f>
+        <v>Bole</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F8" t="str">
+        <f>LEFT(A8,1)&amp;LEFT(B8,3)</f>
+        <v>Brap</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+      <c r="B9" t="s">
+        <v>374</v>
+      </c>
+      <c r="F9" t="str">
+        <f>LEFT(A9,1)&amp;LEFT(B9,3)</f>
+        <v>Cara</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+      <c r="B10" t="s">
+        <v>398</v>
+      </c>
+      <c r="F10" t="str">
+        <f>LEFT(A10,1)&amp;LEFT(B10,3)</f>
+        <v>Ccaj</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+      <c r="B11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" t="str">
+        <f>LEFT(A11,1)&amp;LEFT(B11,3)</f>
+        <v>Ccle</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+      <c r="B12" t="s">
+        <v>368</v>
+      </c>
+      <c r="F12" t="str">
+        <f>LEFT(A12,1)&amp;LEFT(B12,3)</f>
+        <v>Ceug</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+      <c r="B13" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13" t="str">
+        <f>LEFT(A13,1)&amp;LEFT(B13,3)</f>
+        <v>Cmax</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+      <c r="B14" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" t="str">
+        <f>LEFT(A14,1)&amp;LEFT(B14,3)</f>
+        <v>Cmel</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+      <c r="B15" t="s">
+        <v>370</v>
+      </c>
+      <c r="F15" t="str">
+        <f>LEFT(A15,1)&amp;LEFT(B15,3)</f>
+        <v>Cmos</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+      <c r="B16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F16" t="str">
+        <f>LEFT(A16,1)&amp;LEFT(B16,3)</f>
+        <v>Cpep</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+      <c r="B17" t="s">
+        <v>326</v>
+      </c>
+      <c r="F17" t="str">
+        <f>LEFT(A17,1)&amp;LEFT(B17,3)</f>
+        <v>Crub</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+      <c r="B18" t="s">
+        <v>330</v>
+      </c>
+      <c r="F18" t="str">
+        <f>LEFT(A18,1)&amp;LEFT(B18,3)</f>
+        <v>Csat</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+      <c r="B19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F19" t="str">
+        <f>LEFT(A19,1)&amp;LEFT(B19,3)</f>
+        <v>Csat</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+      <c r="B20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" t="str">
+        <f>LEFT(A20,1)&amp;LEFT(B20,3)</f>
+        <v>Csin</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+      <c r="B21" t="s">
+        <v>404</v>
+      </c>
+      <c r="C21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" t="s">
+        <v>334</v>
+      </c>
+      <c r="F21" t="str">
+        <f>LEFT(A21,1)&amp;LEFT(B21,3)</f>
+        <v>Dcar</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>353</v>
+      </c>
+      <c r="B22" t="s">
+        <v>354</v>
+      </c>
+      <c r="F22" t="str">
+        <f>LEFT(A22,1)&amp;LEFT(B22,3)</f>
+        <v>Dzib</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+      <c r="B23" t="s">
+        <v>328</v>
+      </c>
+      <c r="F23" t="str">
+        <f>LEFT(A23,1)&amp;LEFT(B23,3)</f>
+        <v>Esal</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+      <c r="B24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C24" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" t="s">
+        <v>412</v>
+      </c>
+      <c r="F24" t="str">
+        <f>LEFT(A24,1)&amp;LEFT(B24,3)</f>
+        <v>Fves</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+      <c r="B25" t="s">
+        <v>346</v>
+      </c>
+      <c r="F25" t="str">
+        <f>LEFT(A25,1)&amp;LEFT(B25,3)</f>
+        <v>Garb</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+      <c r="B26" t="s">
+        <v>347</v>
+      </c>
+      <c r="F26" t="str">
+        <f>LEFT(A26,1)&amp;LEFT(B26,3)</f>
+        <v>Ghir</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+      <c r="B27" t="s">
+        <v>388</v>
+      </c>
+      <c r="F27" t="str">
+        <f>LEFT(A27,1)&amp;LEFT(B27,3)</f>
+        <v>Gmax</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+      <c r="B28" t="s">
+        <v>345</v>
+      </c>
+      <c r="F28" t="str">
+        <f>LEFT(A28,1)&amp;LEFT(B28,3)</f>
+        <v>Grai</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+      <c r="B29" t="s">
+        <v>389</v>
+      </c>
+      <c r="F29" t="str">
+        <f>LEFT(A29,1)&amp;LEFT(B29,3)</f>
+        <v>Gsoj</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>342</v>
+      </c>
+      <c r="B30" t="s">
+        <v>343</v>
+      </c>
+      <c r="F30" t="str">
+        <f>LEFT(A30,1)&amp;LEFT(B30,3)</f>
+        <v>Humb</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+      <c r="B31" t="s">
+        <v>364</v>
+      </c>
+      <c r="F31" t="str">
+        <f>LEFT(A31,1)&amp;LEFT(B31,3)</f>
+        <v>Jcur</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+      <c r="B32" t="s">
+        <v>400</v>
+      </c>
+      <c r="F32" t="str">
+        <f>LEFT(A32,1)&amp;LEFT(B32,3)</f>
+        <v>Jreg</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+      <c r="B33" t="s">
+        <v>396</v>
+      </c>
+      <c r="F33" t="str">
+        <f>LEFT(A33,1)&amp;LEFT(B33,3)</f>
+        <v>Lang</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>355</v>
+      </c>
+      <c r="B34" t="s">
+        <v>356</v>
+      </c>
+      <c r="F34" t="str">
+        <f>LEFT(A34,1)&amp;LEFT(B34,3)</f>
+        <v>Mcha</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+      <c r="B35" t="s">
+        <v>382</v>
+      </c>
+      <c r="F35" t="str">
+        <f>LEFT(A35,1)&amp;LEFT(B35,3)</f>
+        <v>Nnuc</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>413</v>
+      </c>
+      <c r="B36" t="s">
+        <v>414</v>
+      </c>
+      <c r="F36" t="str">
+        <f>LEFT(A36,1)&amp;LEFT(B36,3)</f>
+        <v>Ntom</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+      <c r="B37" t="s">
+        <v>357</v>
+      </c>
+      <c r="F37" t="str">
+        <f>LEFT(A37,1)&amp;LEFT(B37,3)</f>
+        <v>Pavi</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+      <c r="B38" t="s">
+        <v>361</v>
+      </c>
+      <c r="C38" t="s">
+        <v>362</v>
+      </c>
+      <c r="F38" t="str">
+        <f>LEFT(A38,1)&amp;LEFT(C38,3)</f>
+        <v>Pbre</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+      <c r="B39" t="s">
+        <v>390</v>
+      </c>
+      <c r="F39" t="str">
+        <f>LEFT(A39,1)&amp;LEFT(B39,3)</f>
+        <v>Peup</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+      <c r="B40" t="s">
+        <v>372</v>
+      </c>
+      <c r="F40" t="str">
+        <f>LEFT(A40,1)&amp;LEFT(B40,3)</f>
+        <v>Pmum</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+      <c r="B41" t="s">
+        <v>352</v>
+      </c>
+      <c r="F41" t="str">
+        <f>LEFT(A41,1)&amp;LEFT(B41,3)</f>
+        <v>Pper</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+      <c r="B42" t="s">
+        <v>366</v>
+      </c>
+      <c r="F42" t="str">
+        <f>LEFT(A42,1)&amp;LEFT(B42,3)</f>
+        <v>Ptri</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="B43" t="s">
+        <v>392</v>
+      </c>
+      <c r="F43" t="str">
+        <f>LEFT(A43,1)&amp;LEFT(B43,3)</f>
+        <v>Qsub</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+      <c r="B44" t="s">
+        <v>386</v>
+      </c>
+      <c r="F44" t="str">
+        <f>LEFT(A44,1)&amp;LEFT(B44,3)</f>
+        <v>Rchi</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+      <c r="B45" t="s">
+        <v>359</v>
+      </c>
+      <c r="F45" t="str">
+        <f>LEFT(A45,1)&amp;LEFT(B45,3)</f>
+        <v>Rcom</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+      <c r="B46" t="s">
+        <v>334</v>
+      </c>
+      <c r="F46" t="str">
+        <f>LEFT(A46,1)&amp;LEFT(B46,3)</f>
+        <v>Rsat</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+        <v>405</v>
+      </c>
+      <c r="B47" t="s">
+        <v>406</v>
+      </c>
+      <c r="F47" t="str">
+        <f>LEFT(A47,1)&amp;LEFT(B47,3)</f>
+        <v>Sind</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+      <c r="B48" t="s">
+        <v>407</v>
+      </c>
+      <c r="F48" t="str">
+        <f>LEFT(A48,1)&amp;LEFT(B48,3)</f>
+        <v>Slyc</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+      <c r="B49" t="s">
+        <v>402</v>
+      </c>
+      <c r="F49" t="str">
+        <f>LEFT(A49,1)&amp;LEFT(B49,3)</f>
+        <v>Spen</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+      <c r="B50" t="s">
+        <v>415</v>
+      </c>
+      <c r="F50" t="str">
+        <f>LEFT(A50,1)&amp;LEFT(B50,3)</f>
+        <v>Stub</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+      <c r="B51" t="s">
+        <v>341</v>
+      </c>
+      <c r="F51" t="str">
+        <f>LEFT(A51,1)&amp;LEFT(B51,3)</f>
+        <v>Tcac</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+      <c r="B52" t="s">
+        <v>339</v>
+      </c>
+      <c r="F52" t="str">
+        <f>LEFT(A52,1)&amp;LEFT(B52,3)</f>
+        <v>Thas</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+      <c r="B53" t="s">
+        <v>416</v>
+      </c>
+      <c r="C53" t="s">
+        <v>336</v>
+      </c>
+      <c r="D53" t="s">
+        <v>416</v>
+      </c>
+      <c r="F53" t="str">
+        <f>LEFT(A53,1)&amp;LEFT(B53,3)</f>
+        <v>Vrad</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+      <c r="B54" t="s">
+        <v>410</v>
+      </c>
+      <c r="F54" t="str">
+        <f>LEFT(A54,1)&amp;LEFT(B54,3)</f>
+        <v>Vung</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+      <c r="B55" t="s">
+        <v>394</v>
+      </c>
+      <c r="F55" t="str">
+        <f>LEFT(A55,1)&amp;LEFT(B55,3)</f>
+        <v>Vvin</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>313</v>
+        <v>377</v>
+      </c>
+      <c r="B56" t="s">
+        <v>378</v>
+      </c>
+      <c r="F56" t="str">
+        <f>LEFT(A56,1)&amp;LEFT(B56,3)</f>
+        <v>Zjuj</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F56">
+    <sortCondition ref="F1:F56"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F19" sqref="F1:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>417</v>
+      </c>
+      <c r="B1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" t="str">
+        <f>LEFT(A1,1)&amp;LEFT(B1,3)</f>
+        <v>Hsap</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+      <c r="B2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F19" si="0">LEFT(A2,1)&amp;LEFT(B2,3)</f>
+        <v>Ptro</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>421</v>
+      </c>
+      <c r="B3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>Clup</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+      <c r="B4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>Btau</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+      <c r="B5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Mmus</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+      <c r="B6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Rnor</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+      <c r="B7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Ggal</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" t="s">
+        <v>433</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Drer</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B9" t="s">
+        <v>435</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Dmel</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>Agam</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" t="s">
+        <v>442</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Scer</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" t="s">
+        <v>444</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Klac</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>445</v>
+      </c>
+      <c r="B13" t="s">
+        <v>446</v>
+      </c>
+      <c r="C13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D13">
+        <v>10895</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Egos</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B14" t="s">
+        <v>449</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Spom</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B15" t="s">
+        <v>451</v>
+      </c>
+      <c r="C15" t="s">
+        <v>452</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Pory</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>453</v>
+      </c>
+      <c r="B16" t="s">
+        <v>454</v>
+      </c>
+      <c r="C16" t="s">
+        <v>455</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Ncra</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B17" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>Atha</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>456</v>
+      </c>
+      <c r="B18" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>457</v>
+      </c>
+      <c r="D18" t="s">
+        <v>458</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Osat</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>459</v>
+      </c>
+      <c r="B19" t="s">
+        <v>460</v>
+      </c>
+      <c r="C19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F19" t="str">
+        <f>LEFT(A19,1)&amp;LEFT(C19,3)</f>
+        <v>Xtro</v>
       </c>
     </row>
   </sheetData>
@@ -5535,327 +6345,579 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A75" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+      <c r="D1" t="str">
+        <f>MID(A1,5,4)</f>
+        <v>Oluc</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D63" si="0">MID(A2,5,4)</f>
+        <v>Mpus</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>Rcom</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Csub</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Smoe</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Msp.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Acom</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ahyp</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Alyr</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Acoe</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ahal</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Atha</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Bole</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Bstr</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Bdis</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>Brap</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Bsta</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Cgra</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Crub</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ccle</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>Crei</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>Csat</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>Dcar</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>Dsal</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>Egra</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>Atri</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>Cpap</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>Gmax</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>Grai</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>Zmay</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>Macu</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>Vvin</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>Kfed</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>Klax</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>Lusi</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>Mesc</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>Mpol</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>Mdom</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>Mtru</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>Mgut</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>Fves</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>Csin</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>Otho</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>Phal</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>Pvir</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>Stub</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>Pvul</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>Ptri</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>Ppat</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>Pper</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>Spur</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>Sita</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>Svir</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>Sbic</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>Slyc</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>Sfal</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>Spol</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+        <v>315</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>Tcac</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>Esal</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>Tpra</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>Vcar</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>Zmay</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>394</v>
+        <v>320</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>Zmar</v>
       </c>
     </row>
   </sheetData>
